--- a/doc/2016德晋全部日期作息表上传.xlsx
+++ b/doc/2016德晋全部日期作息表上传.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,14 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -500,7 +499,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>42370</v>
       </c>
@@ -522,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>42371</v>
       </c>
@@ -533,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>42372</v>
       </c>
@@ -544,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>42373</v>
       </c>
@@ -555,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>42374</v>
       </c>
@@ -566,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>42375</v>
       </c>
@@ -577,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>42376</v>
       </c>
@@ -588,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>42377</v>
       </c>
@@ -599,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>42378</v>
       </c>
@@ -610,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>42379</v>
       </c>
@@ -621,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>42380</v>
       </c>
@@ -632,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>42381</v>
       </c>
@@ -643,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>42382</v>
       </c>
@@ -654,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>42383</v>
       </c>
@@ -665,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>42384</v>
       </c>
@@ -676,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>42385</v>
       </c>
@@ -687,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>42386</v>
       </c>
@@ -698,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>42387</v>
       </c>
@@ -709,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>42388</v>
       </c>
@@ -720,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>42389</v>
       </c>
@@ -731,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>42390</v>
       </c>
@@ -742,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>42391</v>
       </c>
@@ -753,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>42392</v>
       </c>
@@ -764,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>42393</v>
       </c>
@@ -775,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>42394</v>
       </c>
@@ -786,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>42395</v>
       </c>
@@ -797,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>42396</v>
       </c>
@@ -808,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>42397</v>
       </c>
@@ -819,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>42398</v>
       </c>
@@ -830,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>42399</v>
       </c>
@@ -841,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>42400</v>
       </c>
@@ -852,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>42401</v>
       </c>
@@ -863,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>42402</v>
       </c>
@@ -874,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>42403</v>
       </c>
@@ -885,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>42404</v>
       </c>
@@ -896,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>42405</v>
       </c>
@@ -907,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>42406</v>
       </c>
@@ -918,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>42407</v>
       </c>
@@ -929,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>42408</v>
       </c>
@@ -940,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>42409</v>
       </c>
@@ -951,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>42410</v>
       </c>
@@ -962,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>42411</v>
       </c>
@@ -973,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>42412</v>
       </c>
@@ -984,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>42413</v>
       </c>
@@ -995,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>42414</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>42415</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>42416</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>42417</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>42418</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>42419</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>42420</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>42421</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>42422</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>42423</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>42424</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>42425</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>42426</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>42427</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>42428</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>42429</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>42430</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>42431</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>42432</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>42433</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>42434</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>42435</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>42436</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>42437</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>42438</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>42439</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>42440</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>42441</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>42442</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>42443</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>42444</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>42445</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>42446</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>42447</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>42448</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>42449</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>42450</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>42451</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>42452</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>42453</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>42454</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>42455</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>42456</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>42457</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>42458</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>42459</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>42460</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>42461</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>42462</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>42463</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>42464</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>42465</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>42466</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>42467</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>42468</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>42469</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>42470</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>42471</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>42472</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>42473</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>42474</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>42475</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>42476</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>42477</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>42478</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>42479</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>42480</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>42481</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>42482</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>42483</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>42484</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>42485</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>42486</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>42487</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>42488</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>42489</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>42490</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42491</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>42492</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>42493</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>42494</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42495</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>42496</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>42497</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>42498</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>42499</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>42500</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>42501</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>42502</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>42503</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>42504</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>42505</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>42506</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>42507</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>42508</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>42509</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>42510</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>42511</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>42512</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>42513</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>42514</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>42515</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>42516</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>42517</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>42518</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>42519</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>42520</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>42521</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>42522</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>42523</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>42524</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>42525</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>42526</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>42527</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>42528</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>42529</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>42530</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>42531</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>42532</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>42533</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>42534</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>42535</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>42536</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>42537</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>42538</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>42539</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>42540</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>42541</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>42542</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>42543</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>42544</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>42545</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>42546</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>42547</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>42548</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>42549</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>42550</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>42551</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>42552</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>42553</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>42554</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>42555</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>42556</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>42557</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>42558</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>42559</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>42560</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>42561</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>42562</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>42563</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>42564</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>42565</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>42566</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>42567</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>42568</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>42569</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>42570</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>42571</v>
       </c>
@@ -2733,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>42572</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>42573</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>42574</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>42575</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>42576</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>42577</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>42578</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>42579</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>42580</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>42581</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>42582</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>42583</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>42584</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>42585</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>42586</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>42587</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>42588</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>42589</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>42590</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>42591</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>42592</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>42593</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>42594</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>42595</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>42596</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>42597</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>42598</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>42599</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>42600</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>42601</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>42602</v>
       </c>
@@ -3074,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>42603</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>42604</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>42605</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>42606</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>42607</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>42608</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>42609</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>42610</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>42611</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>42612</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>42613</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>42614</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>42615</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>42616</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>42617</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>42618</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>42619</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="2">
         <v>42620</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="2">
         <v>42621</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="2">
         <v>42622</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="2">
         <v>42623</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" s="2">
         <v>42624</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="2">
         <v>42625</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="2">
         <v>42626</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="2">
         <v>42627</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="2">
         <v>42628</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="2">
         <v>42629</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="2">
         <v>42630</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="2">
         <v>42631</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="2">
         <v>42632</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="2">
         <v>42633</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="2">
         <v>42634</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="2">
         <v>42635</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="2">
         <v>42636</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="2">
         <v>42637</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="2">
         <v>42638</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="2">
         <v>42639</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="2">
         <v>42640</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="2">
         <v>42641</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="2">
         <v>42642</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="2">
         <v>42643</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="2">
         <v>42644</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="2">
         <v>42645</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="2">
         <v>42646</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="2">
         <v>42647</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="2">
         <v>42648</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="2">
         <v>42649</v>
       </c>
@@ -3591,7 +3590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="2">
         <v>42650</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="2">
         <v>42651</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284" s="2">
         <v>42652</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="2">
         <v>42653</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" s="2">
         <v>42654</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287" s="2">
         <v>42655</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="2">
         <v>42656</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" s="2">
         <v>42657</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" s="2">
         <v>42658</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" s="2">
         <v>42659</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" s="2">
         <v>42660</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" s="2">
         <v>42661</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" s="2">
         <v>42662</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" s="2">
         <v>42663</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" s="2">
         <v>42664</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" s="2">
         <v>42665</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" s="2">
         <v>42666</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" s="2">
         <v>42667</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" s="2">
         <v>42668</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" s="2">
         <v>42669</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" s="2">
         <v>42670</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" s="2">
         <v>42671</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" s="2">
         <v>42672</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" s="2">
         <v>42673</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" s="2">
         <v>42674</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" s="2">
         <v>42675</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" s="2">
         <v>42676</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" s="2">
         <v>42677</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" s="2">
         <v>42678</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" s="2">
         <v>42679</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" s="2">
         <v>42680</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" s="2">
         <v>42681</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" s="2">
         <v>42682</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="2">
         <v>42683</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" s="2">
         <v>42684</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" s="2">
         <v>42685</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="2">
         <v>42686</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="2">
         <v>42687</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" s="2">
         <v>42688</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321" s="2">
         <v>42689</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322" s="2">
         <v>42690</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323" s="2">
         <v>42691</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324" s="2">
         <v>42692</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325" s="2">
         <v>42693</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326" s="2">
         <v>42694</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="A327" s="2">
         <v>42695</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="A328" s="2">
         <v>42696</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329" s="2">
         <v>42697</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330" s="2">
         <v>42698</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331" s="2">
         <v>42699</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332" s="2">
         <v>42700</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333" s="2">
         <v>42701</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334" s="2">
         <v>42702</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335" s="2">
         <v>42703</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336" s="2">
         <v>42704</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337" s="2">
         <v>42705</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338" s="2">
         <v>42706</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339" s="2">
         <v>42707</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340" s="2">
         <v>42708</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341" s="2">
         <v>42709</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342" s="2">
         <v>42710</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343" s="2">
         <v>42711</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344" s="2">
         <v>42712</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345" s="2">
         <v>42713</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346" s="2">
         <v>42714</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347" s="2">
         <v>42715</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348" s="2">
         <v>42716</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349" s="2">
         <v>42717</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" s="2">
         <v>42718</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" s="2">
         <v>42719</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" s="2">
         <v>42720</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" s="2">
         <v>42721</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" s="2">
         <v>42722</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" s="2">
         <v>42723</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" s="2">
         <v>42724</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" s="2">
         <v>42725</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" s="2">
         <v>42726</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" s="2">
         <v>42727</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" s="2">
         <v>42728</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" s="2">
         <v>42729</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" s="2">
         <v>42730</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" s="2">
         <v>42731</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" s="2">
         <v>42732</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" s="2">
         <v>42733</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" s="2">
         <v>42734</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" s="2">
         <v>42735</v>
       </c>
@@ -4538,13 +4537,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C367">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="工作日"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C367"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
